--- a/biology/Histoire de la zoologie et de la botanique/Alexander_Wilhelm_von_Götte/Alexander_Wilhelm_von_Götte.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexander_Wilhelm_von_Götte/Alexander_Wilhelm_von_Götte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexander_Wilhelm_von_G%C3%B6tte</t>
+          <t>Alexander_Wilhelm_von_Götte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander Wilhelm von Götte ou Goette est un zoologiste allemand, né le 31 décembre 1840 à Saint-Pétersbourg et mort le 5 février 1922 à Handschuhsheim.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexander_Wilhelm_von_G%C3%B6tte</t>
+          <t>Alexander_Wilhelm_von_Götte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Ernst Bernhard et de Natalie née Bagh. Il étudie la médecine à Dorpat en Estonie au début des années 1860. Il obtient son doctorat à Tübingen en 1866 et se marie l’année suivante avec Maria Hoerschelmann, union dont naîtra trois fils et deux filles.
 Il devient l’assistant d’Eduard Oscar Schmidt (1823-1886) à l’institut de zoologie de Strasbourg en 1872, puis professeur associé en 1877. Il dirige le département de zoologie du Muséum de la ville à partir de 1880. De 1882 à 1886, il enseigne et dirige l’institut zoologique de l’université de Rostock, puis enseigne à Strasbourg de 1886 à 1918.
